--- a/github연습.xlsx
+++ b/github연습.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\pjt_1st_PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7EECD4-3050-483D-863E-391D01A9A1C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FDCB60-484F-4421-B0BD-9B2F12C4D6A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12120" xr2:uid="{DD69E703-42DA-4443-81A4-C52509934360}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12120" activeTab="2" xr2:uid="{DD69E703-42DA-4443-81A4-C52509934360}"/>
   </bookViews>
   <sheets>
     <sheet name="첫번째sheet" sheetId="1" r:id="rId1"/>
     <sheet name="두번째sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="&gt;&gt;1차수정" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,13 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>둘째시트 A1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>첫번째시트A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;1차수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;1차수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54342D1-9397-4D53-9B64-5FD389B0AFB9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -410,25 +419,9 @@
         <v>1</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591837F4-CB3C-4435-A85D-4D67AD120B1A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -436,4 +429,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591837F4-CB3C-4435-A85D-4D67AD120B1A}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1425DB-AE94-40BB-BE6A-11F3B8F5D640}">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>